--- a/medicine/Mort/Nécropole_nationale_de_Crouy/Nécropole_nationale_de_Crouy.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Crouy/Nécropole_nationale_de_Crouy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Crouy</t>
+          <t>Nécropole_nationale_de_Crouy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Crouy est un cimetière militaire de la Première Guerre mondiale situé sur le territoire de la commune de Crouy dans le département de l'Aisne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Crouy</t>
+          <t>Nécropole_nationale_de_Crouy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole nationale de Crouy a été créée en 1917 lors de la bataille du Chemin des Dames[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole nationale de Crouy a été créée en 1917 lors de la bataille du Chemin des Dames.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Crouy</t>
+          <t>Nécropole_nationale_de_Crouy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole de Crouy, d'une superficie de 0,6 ha, contient 2 941 corps de soldats français et 50 corps de soldats britanniques tombés en septembre et en octobre 1914 et inhumés précédemment à Bucy-le-Long et de Missy-sur-Aisne et ré-inhumés à Crouy après le 11 novembre 1918 ; parmi eux, 20 ne sont pas identifiés. 1 476 Français reposent dans deux ossuaires et 1 465 dans des tombes individuelles[2].
-Un soldat français et deux polonais, tués au cours de la Seconde Guerre mondiale, ont été inhumés dans ce cimetière[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole de Crouy, d'une superficie de 0,6 ha, contient 2 941 corps de soldats français et 50 corps de soldats britanniques tombés en septembre et en octobre 1914 et inhumés précédemment à Bucy-le-Long et de Missy-sur-Aisne et ré-inhumés à Crouy après le 11 novembre 1918 ; parmi eux, 20 ne sont pas identifiés. 1 476 Français reposent dans deux ossuaires et 1 465 dans des tombes individuelles.
+Un soldat français et deux polonais, tués au cours de la Seconde Guerre mondiale, ont été inhumés dans ce cimetière.
 </t>
         </is>
       </c>
